--- a/docs/odh/shr-core-Geoposition-model.xlsx
+++ b/docs/odh/shr-core-Geoposition-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>Path</t>
   </si>
@@ -150,28 +150,16 @@
     <t>The angular distance north or south between an imaginary line around a heavenly body parallel to its equator and the equator itself. Measured with with WGS84 datum.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1627936
-</t>
-  </si>
-  <si>
     <t>shr-core-Geoposition-model.longitude</t>
   </si>
   <si>
     <t>An imaginary great circle on the surface of a heavenly body passing through the poles at right angles to the equator. Measured with with WGS84 datum.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1657623
-</t>
-  </si>
-  <si>
     <t>shr-core-Geoposition-model.altitude</t>
   </si>
   <si>
     <t>Height above sea level or above the earth's surface. Measured with with WGS84 datum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0002349
-</t>
   </si>
 </sst>
 </file>
@@ -320,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -354,7 +342,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -635,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>36</v>
@@ -667,7 +655,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -693,10 +681,10 @@
         <v>42</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -732,7 +720,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -747,7 +735,7 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
@@ -764,7 +752,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -790,10 +778,10 @@
         <v>42</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -829,7 +817,7 @@
         <v>36</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -844,7 +832,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
